--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_22-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_22-49.xlsx
@@ -50,12 +50,6 @@
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -386,13 +380,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -1108,11 +1102,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1128,17 +1122,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1146,7 +1140,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1154,13 +1148,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1172,7 +1166,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1180,13 +1174,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1198,7 +1192,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1206,17 +1200,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1224,7 +1218,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1232,13 +1226,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1250,7 +1244,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1264,11 +1258,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1276,7 +1270,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1284,13 +1278,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1302,7 +1296,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1316,7 +1310,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1328,7 +1322,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1342,11 +1336,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,11 +1362,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1380,7 +1374,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1388,17 +1382,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1406,7 +1400,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1420,11 +1414,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1432,7 +1426,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1440,17 +1434,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>74</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1466,17 +1460,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>43.329999999999998</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1484,7 +1478,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1492,17 +1486,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1510,7 +1504,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1518,17 +1512,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1536,7 +1530,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1550,11 +1544,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1570,17 +1564,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1588,7 +1582,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1596,17 +1590,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,7 +1608,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1622,17 +1616,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1648,13 +1642,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>42</v>
+        <v>133.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1666,7 +1660,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1680,7 +1674,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>133.5</v>
+        <v>57</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1692,7 +1686,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1700,13 +1694,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1732,7 +1726,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1758,11 +1752,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1784,7 +1778,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1804,13 +1798,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1822,7 +1816,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1830,17 +1824,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1848,7 +1842,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1862,7 +1856,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1874,7 +1868,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1882,17 +1876,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1908,13 +1902,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1934,17 +1928,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1952,7 +1946,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1960,13 +1954,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1978,7 +1972,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1986,17 +1980,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2004,7 +1998,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2012,17 +2006,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2030,7 +2024,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2038,17 +2032,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2070,11 +2064,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2090,13 +2084,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>33</v>
+        <v>280.25</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2108,7 +2102,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2116,17 +2110,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>280.25</v>
+        <v>16.91</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2142,17 +2136,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>16.91</v>
+        <v>120</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2160,7 +2154,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2168,17 +2162,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2186,7 +2180,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2194,17 +2188,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>180</v>
+        <v>71.5</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2212,7 +2206,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2220,17 +2214,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>71.5</v>
+        <v>67</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2246,17 +2240,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2264,7 +2258,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2272,17 +2266,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2290,7 +2284,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2304,7 +2298,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2316,7 +2310,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2324,13 +2318,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2342,7 +2336,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2350,17 +2344,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2376,17 +2370,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2394,7 +2388,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2402,17 +2396,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2428,17 +2422,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2446,7 +2440,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2454,13 +2448,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2472,7 +2466,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2480,17 +2474,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2498,7 +2492,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2506,17 +2500,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>540</v>
+        <v>48</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2524,7 +2518,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2532,17 +2526,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2550,7 +2544,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2558,17 +2552,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>159.16</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2576,7 +2570,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2584,17 +2578,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>159.16</v>
+        <v>82</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2602,7 +2596,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2610,17 +2604,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2628,7 +2622,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2636,17 +2630,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2662,13 +2656,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2680,7 +2674,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2688,17 +2682,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2706,7 +2700,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2714,17 +2708,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2732,7 +2726,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2746,11 +2740,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2758,7 +2752,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2766,17 +2760,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2784,7 +2778,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2792,17 +2786,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2810,7 +2804,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2818,17 +2812,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2836,7 +2830,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2844,17 +2838,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2862,7 +2856,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2870,17 +2864,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2888,7 +2882,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2896,13 +2890,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2914,7 +2908,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2922,17 +2916,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2940,7 +2934,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2948,17 +2942,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2980,11 +2974,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>75</v>
+        <v>30.07</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3000,17 +2994,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>30.07</v>
+        <v>18</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3018,7 +3012,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3026,17 +3020,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3044,7 +3038,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3052,13 +3046,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3084,11 +3078,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3110,11 +3104,11 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3130,17 +3124,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>17.5</v>
+        <v>37</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3148,7 +3142,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3156,17 +3150,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3174,7 +3168,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3182,17 +3176,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3200,7 +3194,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3208,13 +3202,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3226,7 +3220,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3234,17 +3228,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3270,7 +3264,7 @@
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3286,17 +3280,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>12</v>
+        <v>59.600000000000001</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3318,11 +3312,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>61.600000000000001</v>
+        <v>5.9800000000000004</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3330,7 +3324,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3338,17 +3332,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>5.9800000000000004</v>
+        <v>30</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3356,7 +3350,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3364,13 +3358,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3382,7 +3376,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3390,17 +3384,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3408,7 +3402,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3416,17 +3410,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3434,7 +3428,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3442,17 +3436,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3460,7 +3454,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3468,7 +3462,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -3478,7 +3472,7 @@
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3486,7 +3480,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3494,13 +3488,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3512,7 +3506,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3520,13 +3514,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>69.299999999999997</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3538,7 +3532,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3546,13 +3540,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>44.549999999999997</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3564,7 +3558,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3572,13 +3566,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3590,7 +3584,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3598,13 +3592,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3616,7 +3610,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3624,17 +3618,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3642,7 +3636,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3650,77 +3644,51 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" ht="24.75" customHeight="1">
-      <c r="A106" s="6">
-        <v>103</v>
-      </c>
-      <c t="s" r="B106" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="K106" s="10">
+        <v>7327.2200000000003</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="11">
+        <v>139</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c t="s" r="F107" s="12">
         <v>140</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c t="s" r="H106" s="8">
-        <v>105</v>
-      </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9">
-        <v>30</v>
-      </c>
-      <c r="M106" s="9"/>
-      <c t="s" r="N106" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" ht="26.25" customHeight="1">
-      <c r="K107" s="10">
-        <v>7342.2200000000003</v>
-      </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="11">
+      <c r="G107" s="12"/>
+      <c r="H107" s="13"/>
+      <c t="s" r="I107" s="14">
         <v>141</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c t="s" r="F108" s="12">
-        <v>142</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
-      <c t="s" r="I108" s="14">
-        <v>143</v>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="317">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4034,13 +4002,10 @@
     <mergeCell ref="B105:G105"/>
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I107:N107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
